--- a/codigo_final_organizado/analisis/resultados_diff_d/P2_Puntos_Inflexion.xlsx
+++ b/codigo_final_organizado/analisis/resultados_diff_d/P2_Puntos_Inflexion.xlsx
@@ -470,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08216002138299e+18</v>
+        <v>6604472408411690</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.621629794306388e+17</v>
+        <v>8232260351980812</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1.162884762022465e+18</v>
+        <v>5712944557296251</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>1.261410697137797e+18</v>
+        <v>2.477083734877364e+16</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>2.146315670947837e+17</v>
+        <v>2954685332635526</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>4.321148374575023e+16</v>
+        <v>1999376559383782</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>4.23330485862563e+16</v>
+        <v>3584075249010192</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>7.150108065635674e+17</v>
+        <v>1.448586061402027e+16</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>172961672928.6935</v>
+        <v>1867272210.335898</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>3.76617415774207e+18</v>
+        <v>952044472928671.6</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>4.768174762039737e+18</v>
+        <v>1519782252619251</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>3.095981451808402e+18</v>
+        <v>882363431162399.4</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>1.903504393700719e+19</v>
+        <v>1451515514439668</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>1.696005765991209e+18</v>
+        <v>1551416074473771</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>9.897099805331712e+17</v>
+        <v>2933666768474808</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>9.713576268925405e+17</v>
+        <v>2400430098853130</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>9.005802762117546e+18</v>
+        <v>1971728870494816</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>5532887218332.771</v>
+        <v>40402161021.95883</v>
       </c>
     </row>
   </sheetData>
